--- a/data-raw/metadata/recaptures_metadata.xlsx
+++ b/data-raw/metadata/recaptures_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CFC21F-9D63-1B4E-9A64-907E4B3A7432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8F7976-2241-0843-A6A0-702EA291F420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>maximum</t>
-  </si>
-  <si>
-    <t>projectDescriptionID</t>
   </si>
   <si>
     <t>nominal</t>
@@ -229,6 +226,9 @@
   <si>
     <t>Information for mark types that contain codes. Levels = c(NA, "F")</t>
   </si>
+  <si>
+    <t>ProjectDescriptionID</t>
+  </si>
 </sst>
 </file>
 
@@ -332,8 +332,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -341,6 +339,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +559,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,28 +635,28 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="16"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -673,19 +673,19 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -711,28 +711,28 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="16"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -749,28 +749,28 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="16"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -787,28 +787,28 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="16"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -825,28 +825,28 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -863,28 +863,28 @@
     </row>
     <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="16"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -901,28 +901,28 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="16"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -939,36 +939,36 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
+      <c r="F10" s="14" t="s">
+        <v>49</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>53</v>
-      </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="16"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="16">
+      <c r="L10" s="14">
         <v>33</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="14">
         <v>163</v>
       </c>
       <c r="N10" s="1"/>
@@ -987,36 +987,36 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="16">
+      <c r="L11" s="14">
         <v>1</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="14">
         <v>4</v>
       </c>
       <c r="N11" s="1"/>
@@ -1035,33 +1035,33 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7"/>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>59</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1079,19 +1079,19 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1117,19 +1117,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -1137,8 +1137,8 @@
       <c r="I14" s="7"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1155,19 +1155,19 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1175,8 +1175,8 @@
       <c r="I15" s="7"/>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1193,19 +1193,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1231,19 +1231,19 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1269,19 +1269,19 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1307,19 +1307,19 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -1848,7 +1848,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -1876,7 +1876,7 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -1904,7 +1904,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -1932,7 +1932,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -28881,13 +28881,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>

--- a/data-raw/metadata/recaptures_metadata.xlsx
+++ b/data-raw/metadata/recaptures_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8F7976-2241-0843-A6A0-702EA291F420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EFE97B-E915-1542-97EB-C18869EC2B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>recaptures</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. For Knight's Landing RST, projectDescriptionID = 9.</t>
-  </si>
-  <si>
     <t>trapVisitID</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>commonName</t>
   </si>
   <si>
-    <t>Common name of marked species.</t>
-  </si>
-  <si>
     <t>releaseID</t>
   </si>
   <si>
@@ -154,22 +148,10 @@
     <t>run</t>
   </si>
   <si>
-    <t>Run designation assigned at a later date.  Levels = c(NA, "Winter", "Late fall", "Spring", "Fall", "Not recorded", 
-"Not applicable (n/a)")</t>
-  </si>
-  <si>
     <t>fishOrigin</t>
   </si>
   <si>
-    <t>Origin/production type of the fish. Levels = c("Natural", "Hatchery", "Not recorded", "Unknown")</t>
-  </si>
-  <si>
     <t>lifeStage</t>
-  </si>
-  <si>
-    <t>Life stage of the fish. c("Not recorded", "Parr", "Ammocoete", "Button-up fry", "Juvenile", 
-"Silvery parr", "Smolt", "Fry", "Yolk sac fry (alevin)", "Yearling", 
-"Adult", "YOY (young of the year)")</t>
   </si>
   <si>
     <t>forkLength</t>
@@ -224,10 +206,26 @@
     <t>Position of mark found on fish. Levels = c("Whole body", "Nose", "Adipose fin")</t>
   </si>
   <si>
-    <t>Information for mark types that contain codes. Levels = c(NA, "F")</t>
+    <t>ProjectDescriptionID</t>
   </si>
   <si>
-    <t>ProjectDescriptionID</t>
+    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 9.</t>
+  </si>
+  <si>
+    <t>Common name of marked species. Level = "Chinook salmon"</t>
+  </si>
+  <si>
+    <t>Run designation assigned at a later date.  Levels = c("Fall", "Spring", NA, "Late fall", "Winter")</t>
+  </si>
+  <si>
+    <t>Origin/production type of the fish. Levels = c("Natural", "Hatchery", "Unknown", "Not recorded")</t>
+  </si>
+  <si>
+    <t>Life stage of the fish. Levels = c("Parr", "Button-up fry", "Silvery parr", "Not recorded", "Smolt", 
+"Fry")</t>
+  </si>
+  <si>
+    <t>Information for mark types that contain codes. Levels = c(NA, FALSE)</t>
   </si>
 </sst>
 </file>
@@ -559,7 +557,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -635,10 +633,10 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -676,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -711,10 +709,10 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
@@ -749,10 +747,10 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -787,10 +785,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -825,10 +823,10 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -863,10 +861,10 @@
     </row>
     <row r="8" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -901,10 +899,10 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -939,28 +937,28 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="14"/>
@@ -987,28 +985,28 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>55</v>
-      </c>
       <c r="H11" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="14"/>
@@ -1035,33 +1033,33 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1079,10 +1077,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1117,10 +1115,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1155,10 +1153,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -1196,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -1234,7 +1232,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -1269,10 +1267,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -1310,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>

--- a/data-raw/metadata/recaptures_metadata.xlsx
+++ b/data-raw/metadata/recaptures_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-knights-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12D9A17-1216-4542-9659-F981CA683A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E5CA7-4528-44E4-A40B-384934600E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1500" windowWidth="18390" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6730" yWindow="1440" windowWidth="15070" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>2007-01-02 09:15:00</t>
   </si>
   <si>
-    <t>2022-04-01 10:15:03</t>
-  </si>
-  <si>
     <t>Code for work that was done during visit to trap. Levels = c("Unplanned restart", "Continue trapping", "End trapping")</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   <si>
     <t>Life stage assigned based on visual observation and photo key of lifestages. Levels = c("Parr", "Button-up fry", "Silvery parr", "Not recorded", "Smolt", 
 "Fry")</t>
+  </si>
+  <si>
+    <t>202-04-01 10:45:43</t>
   </si>
 </sst>
 </file>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,7 +339,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="136" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -634,10 +633,10 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -751,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -827,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -864,8 +863,8 @@
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>64</v>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -903,7 +902,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1060,7 +1059,7 @@
         <v>53</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1081,7 +1080,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1195,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -1233,7 +1232,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -1271,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -1309,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>

--- a/data-raw/metadata/recaptures_metadata.xlsx
+++ b/data-raw/metadata/recaptures_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-knights-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055E5CA7-4528-44E4-A40B-384934600E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E38BCD-1C51-47E9-AE2F-4CBAFF27CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6730" yWindow="1440" windowWidth="15070" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="2050" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -225,7 +225,10 @@
 "Fry")</t>
   </si>
   <si>
-    <t>202-04-01 10:45:43</t>
+    <t>2023-04-27 10:45:43</t>
+  </si>
+  <si>
+    <t>enumerated</t>
   </si>
 </sst>
 </file>
@@ -556,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="136" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -645,7 +648,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -28866,7 +28869,7 @@
   <dimension ref="A1:Z927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD34"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -28912,10 +28915,15 @@
       <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="11">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>

--- a/data-raw/metadata/recaptures_metadata.xlsx
+++ b/data-raw/metadata/recaptures_metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-knights-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E38BCD-1C51-47E9-AE2F-4CBAFF27CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A902FC6-F3AC-4A1C-B4F6-42D41D235BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3200" yWindow="2050" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -642,7 +642,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>23</v>

--- a/data-raw/metadata/recaptures_metadata.xlsx
+++ b/data-raw/metadata/recaptures_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-knights-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CFAE38-FE21-8146-9A3C-807EC75305AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C2A08-D6F4-EE4C-95C2-7C585D132A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65960" yWindow="1660" windowWidth="29340" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70340" yWindow="2400" windowWidth="29340" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -248,6 +248,12 @@
   <si>
     <t>2023-04-14 09:45:32</t>
   </si>
+  <si>
+    <t>visitTime2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date and time of day associated with the end of trap visit. Definition varies based on visitType. </t>
+  </si>
 </sst>
 </file>
 
@@ -358,11 +364,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1101,28 +1107,34 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="L13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -1139,10 +1151,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -1159,8 +1171,8 @@
       <c r="I14" s="7"/>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1177,10 +1189,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -1215,10 +1227,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -1229,34 +1241,34 @@
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -1271,9 +1283,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="3"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="3"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1291,10 +1303,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -1329,10 +1341,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -1347,7 +1359,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="2"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1367,34 +1379,28 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>72</v>
-      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1411,10 +1417,10 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1433,11 +1439,11 @@
         <v>29</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="19" t="s">
+      <c r="L21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="19" t="s">
-        <v>65</v>
+      <c r="M21" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1454,19 +1460,35 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>65</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1902,7 +1924,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -1958,7 +1980,7 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -2014,7 +2036,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2966,7 +2988,7 @@
       <c r="Z75" s="1"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
+      <c r="A76" s="4"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -28893,22 +28915,50 @@
       <c r="Y1001" s="1"/>
       <c r="Z1001" s="1"/>
     </row>
+    <row r="1002" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="1"/>
+      <c r="B1002" s="1"/>
+      <c r="C1002" s="1"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="1"/>
+      <c r="F1002" s="3"/>
+      <c r="G1002" s="3"/>
+      <c r="H1002" s="3"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="3"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="3"/>
+      <c r="M1002" s="3"/>
+      <c r="N1002" s="1"/>
+      <c r="O1002" s="1"/>
+      <c r="P1002" s="1"/>
+      <c r="Q1002" s="1"/>
+      <c r="R1002" s="1"/>
+      <c r="S1002" s="1"/>
+      <c r="T1002" s="1"/>
+      <c r="U1002" s="1"/>
+      <c r="V1002" s="1"/>
+      <c r="W1002" s="1"/>
+      <c r="X1002" s="1"/>
+      <c r="Y1002" s="1"/>
+      <c r="Z1002" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C58:C1001 C1:C46" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C59:C1002 C1:C47" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1001" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E1002" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1001" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F1002" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1001" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H1002" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data-raw/metadata/recaptures_metadata.xlsx
+++ b/data-raw/metadata/recaptures_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-knights-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12D9A17-1216-4542-9659-F981CA683A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E54C7C4-AF55-460A-A1F3-CFEF46786B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1500" windowWidth="18390" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3980" yWindow="1740" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>2007-01-02 09:15:00</t>
   </si>
   <si>
-    <t>2022-04-01 10:15:03</t>
-  </si>
-  <si>
     <t>Code for work that was done during visit to trap. Levels = c("Unplanned restart", "Continue trapping", "End trapping")</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   <si>
     <t>Life stage assigned based on visual observation and photo key of lifestages. Levels = c("Parr", "Button-up fry", "Silvery parr", "Not recorded", "Smolt", 
 "Fry")</t>
+  </si>
+  <si>
+    <t>2023-04-27 10:45:43</t>
   </si>
 </sst>
 </file>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,7 +339,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="136" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -634,10 +633,10 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -751,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -827,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -864,8 +863,8 @@
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>64</v>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -903,7 +902,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -1060,7 +1059,7 @@
         <v>53</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1081,7 +1080,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -1195,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>13</v>
@@ -1233,7 +1232,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -1271,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -1309,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
